--- a/CashFlow/GLW_cashflow.xlsx
+++ b/CashFlow/GLW_cashflow.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-570000000.0</v>
+        <v>-598000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-160000000.0</v>
@@ -516,7 +516,7 @@
         <v>358000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>425000000.0</v>
+        <v>453000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>-13000000.0</v>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>9615000000.0</v>
+        <v>534000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>9601000000.0</v>
+        <v>423000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7203000000.0</v>
+        <v>280000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4541000000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2208000000.0</v>
+        <v>-206000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-298000000.0</v>
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>237000000.0</v>
+        <v>4731000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>57000000.0</v>
+        <v>4709000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1448000000.0</v>
+        <v>5122000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-1060000000.0</v>
+        <v>-1084000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-1340000000.0</v>
@@ -1790,10 +1790,8 @@
           <t>Net Aquisitions</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>-20000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>-838000000.0</v>
@@ -2681,7 +2679,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>175000000.0</v>
+        <v>168000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>19000000.0</v>
@@ -2693,7 +2691,7 @@
         <v>-603000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-730000000.0</v>
+        <v>-723000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>-882000000.0</v>
@@ -4202,7 +4200,7 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>645000000.0</v>
+        <v>546000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>308000000.0</v>
@@ -4214,7 +4212,7 @@
         <v>433000000.0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>-32000000.0</v>
+        <v>-60000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>-419000000.0</v>
@@ -4486,7 +4484,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>175000000.0</v>
+        <v>168000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>19000000.0</v>
@@ -4498,7 +4496,7 @@
         <v>-603000000.0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>-730000000.0</v>
+        <v>-723000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>-882000000.0</v>
